--- a/OrionTimeSheetStatus.xlsx
+++ b/OrionTimeSheetStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\Eclipse-Workspace\OrionTimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2128637A-A6FA-42AA-A9F4-FA6CC17A4508}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B473E-89BA-42FB-AD77-367C615D7021}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8490" xr2:uid="{180BC902-77D8-4688-91F7-0B711583109A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pending!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Results'!$A$1:$F$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Results'!$A$1:$F$112</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="83">
   <si>
     <t>Scenario</t>
   </si>
@@ -138,24 +138,12 @@
     <t>Open any of the "Rejected", timesheet link</t>
   </si>
   <si>
-    <t>Need clarification.  What are the fields that are editable when the timesheet is in Submitted state</t>
-  </si>
-  <si>
     <t>Need clarification.  What are the fields that are editable when the timesheet is in Rejected state</t>
   </si>
   <si>
-    <t>Verify consultant is NOT able to SAVE time sheet under status "SUBMITTED"</t>
-  </si>
-  <si>
     <t>Verify consultant is NOT able to SAVE time sheet under status "REJECTED"</t>
   </si>
   <si>
-    <t>Verify consultant is NOT able to SUBMIT time sheet under status "SUBMITTED"</t>
-  </si>
-  <si>
-    <t>Verify consultant is able to CANCEL a time sheet modification under status  "SUBMITTED"</t>
-  </si>
-  <si>
     <t>Verify consultant is able to CANCEL a time sheet modification under status  "REJECTED"</t>
   </si>
   <si>
@@ -837,6 +825,179 @@
       </rPr>
       <t>" (Test_PreApprovedTimeSheet_SubmitFunctionality.java)</t>
     </r>
+  </si>
+  <si>
+    <t>20Apr18 : Coding &amp; Testing completed</t>
+  </si>
+  <si>
+    <t>Verify user able to enter time, add attachment, add comment to the respective fields</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify consultant is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> able to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> time sheet under status </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"SUBMITTED" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Test_SubmittedTimeSheet_SaveFunctionality.java)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify consultant is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> able to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUBMIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> time sheet under status </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"SUBMITTED"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Test_SubmittedTimeSheet_SubmitFunctionality.java)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify consultant is able to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANCEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a time sheet modification under status  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SUBMITTED"</t>
+    </r>
+  </si>
+  <si>
+    <t>Confirm Cancel button exist to close the screen</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1000,11 +1161,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1319,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E778086-0B27-449B-B513-3D96CBA20D02}">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1358,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="5" t="s">
@@ -1368,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1382,7 +1538,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1462,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
@@ -1472,7 +1628,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,7 +1697,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
@@ -1566,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
@@ -1576,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,7 +1775,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
@@ -1643,7 +1799,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
@@ -1680,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
@@ -1690,7 +1846,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1782,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
@@ -1792,7 +1948,7 @@
         <v>22</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,7 +1962,7 @@
         <v>22</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,7 +1993,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6" t="s">
@@ -1861,7 +2017,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6" t="s">
@@ -1886,7 +2042,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
@@ -1896,7 +2052,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,7 +2066,7 @@
         <v>22</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,7 +2097,7 @@
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
@@ -1965,7 +2121,7 @@
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6" t="s">
@@ -1990,7 +2146,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
@@ -2000,7 +2156,7 @@
         <v>22</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2014,7 +2170,7 @@
         <v>22</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,7 +2196,7 @@
         <v>22</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,7 +2264,7 @@
         <v>8</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
@@ -2118,7 +2274,7 @@
         <v>22</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,7 +2288,7 @@
         <v>22</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2163,7 +2319,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
@@ -2187,7 +2343,7 @@
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
@@ -2212,7 +2368,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
@@ -2222,7 +2378,7 @@
         <v>22</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,7 +2392,7 @@
         <v>22</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,7 +2496,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="5" t="s">
@@ -2350,7 +2506,7 @@
         <v>22</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,7 +2561,7 @@
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="6" t="s">
@@ -2417,7 +2573,7 @@
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="6" t="s">
@@ -2442,7 +2598,7 @@
         <v>11</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="5" t="s">
@@ -2452,7 +2608,7 @@
         <v>22</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2483,7 +2639,7 @@
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6" t="s">
@@ -2507,7 +2663,7 @@
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="6" t="s">
@@ -2544,7 +2700,7 @@
         <v>12</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
@@ -2554,7 +2710,7 @@
         <v>22</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2597,7 +2753,7 @@
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="6" t="s">
@@ -2621,7 +2777,7 @@
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="6" t="s">
@@ -2633,7 +2789,7 @@
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="6" t="s">
@@ -2665,88 +2821,338 @@
       </c>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="17"/>
+    <row r="104" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
+        <v>13</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="17"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="17"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="5"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="17"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="17"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="17"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="17"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="17"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="17"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="17"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A113" s="13">
+        <v>14</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A122" s="13">
+        <v>15</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F156" xr:uid="{D372FFE7-2919-4399-8E80-B75776B20FA7}"/>
+  <autoFilter ref="A1:F157" xr:uid="{D372FFE7-2919-4399-8E80-B75776B20FA7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2754,10 +3160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31CADDE-4362-43DE-A992-8FFB2CF04700}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,11 +3197,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>13</v>
+      <c r="A2" s="14">
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -2830,7 +3236,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -2840,7 +3246,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
@@ -2860,7 +3266,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2876,19 +3282,21 @@
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>14</v>
+    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -2898,9 +3306,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -2916,7 +3322,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
@@ -2926,7 +3332,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
@@ -2936,17 +3342,17 @@
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
@@ -2962,285 +3368,27 @@
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>15</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
-        <v>16</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>17</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>19</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{84B7F5E1-B8F4-4C99-8445-1EE1AAE2130B}"/>

--- a/OrionTimeSheetStatus.xlsx
+++ b/OrionTimeSheetStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\Eclipse-Workspace\OrionTimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B473E-89BA-42FB-AD77-367C615D7021}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6620F8AE-0073-483D-B638-E853D88C5F4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8490" xr2:uid="{180BC902-77D8-4688-91F7-0B711583109A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="80">
   <si>
     <t>Scenario</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Need dev environment to test "Submit"</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -114,15 +111,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>On-hold</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Coding completed. Need test data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click New Timesheet </t>
   </si>
   <si>
@@ -136,18 +124,6 @@
   </si>
   <si>
     <t>Open any of the "Rejected", timesheet link</t>
-  </si>
-  <si>
-    <t>Need clarification.  What are the fields that are editable when the timesheet is in Rejected state</t>
-  </si>
-  <si>
-    <t>Verify consultant is NOT able to SAVE time sheet under status "REJECTED"</t>
-  </si>
-  <si>
-    <t>Verify consultant is able to CANCEL a time sheet modification under status  "REJECTED"</t>
-  </si>
-  <si>
-    <t>Verify consultant is able to SUBMIT a time sheet under status "REJECTED"</t>
   </si>
   <si>
     <t>Confirm Submit does not button exist to submit the details</t>
@@ -962,6 +938,12 @@
     </r>
   </si>
   <si>
+    <t>Confirm Cancel button exist to close the screen</t>
+  </si>
+  <si>
+    <t>24Apr18 : Coding &amp; Testing completed</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Verify consultant is able to </t>
     </r>
@@ -993,11 +975,173 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"SUBMITTED"</t>
-    </r>
-  </si>
-  <si>
-    <t>Confirm Cancel button exist to close the screen</t>
+      <t xml:space="preserve">"SUBMITTED" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Test_SubmittedTimeSheet_CancelFunctionality.java)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify consultant is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> able to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> time sheet under status </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"REJECTED" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Test_RejectedTimeSheet_SaveFunctionality.java)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify consultant is able to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANCEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a time sheet modification under status  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"REJECTED" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Test_RejectedTimeSheet_CancelFunctionality.java)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify consultant is able to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUBMIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a time sheet under status </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"REJECTED"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Test_RejectedTimeSheet_SubmitFunctionality.java)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Rejected" Timesheet </t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1070,12 +1214,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1157,8 +1295,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1475,9 +1612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E778086-0B27-449B-B513-3D96CBA20D02}">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1500,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -1514,17 +1653,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,10 +1674,10 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,7 +1688,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1557,11 +1696,11 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -1573,7 +1712,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -1581,11 +1720,11 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -1593,11 +1732,11 @@
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -1609,7 +1748,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -1618,17 +1757,17 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,10 +1778,10 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1653,7 +1792,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -1661,11 +1800,11 @@
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -1677,7 +1816,7 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -1689,7 +1828,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1697,11 +1836,11 @@
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -1713,7 +1852,7 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -1722,17 +1861,17 @@
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,7 +1882,7 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -1755,7 +1894,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -1767,7 +1906,7 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1775,11 +1914,11 @@
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -1791,7 +1930,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -1799,11 +1938,11 @@
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -1815,7 +1954,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -1827,7 +1966,7 @@
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -1836,17 +1975,17 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1857,7 +1996,7 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -1869,7 +2008,7 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -1877,11 +2016,11 @@
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -1893,7 +2032,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="5"/>
     </row>
@@ -1905,7 +2044,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -1917,7 +2056,7 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -1929,7 +2068,7 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" s="5"/>
     </row>
@@ -1938,17 +2077,17 @@
         <v>5</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,10 +2098,10 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,7 +2112,7 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -1985,7 +2124,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="5"/>
     </row>
@@ -1993,11 +2132,11 @@
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" s="5"/>
     </row>
@@ -2009,7 +2148,7 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="5"/>
     </row>
@@ -2017,11 +2156,11 @@
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F41" s="5"/>
     </row>
@@ -2033,7 +2172,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" s="5"/>
     </row>
@@ -2042,17 +2181,17 @@
         <v>6</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2063,10 +2202,10 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,7 +2216,7 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45" s="5"/>
     </row>
@@ -2089,7 +2228,7 @@
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F46" s="5"/>
     </row>
@@ -2097,11 +2236,11 @@
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F47" s="5"/>
     </row>
@@ -2113,7 +2252,7 @@
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F48" s="5"/>
     </row>
@@ -2121,11 +2260,11 @@
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F49" s="5"/>
     </row>
@@ -2137,7 +2276,7 @@
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -2146,17 +2285,17 @@
         <v>7</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2167,10 +2306,10 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,7 +2320,7 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F53" s="5"/>
     </row>
@@ -2193,10 +2332,10 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2207,7 +2346,7 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -2219,7 +2358,7 @@
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F56" s="5"/>
     </row>
@@ -2231,7 +2370,7 @@
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F57" s="5"/>
     </row>
@@ -2243,7 +2382,7 @@
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F58" s="5"/>
     </row>
@@ -2255,7 +2394,7 @@
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F59" s="5"/>
     </row>
@@ -2264,17 +2403,17 @@
         <v>8</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,10 +2424,10 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,7 +2438,7 @@
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F62" s="5"/>
     </row>
@@ -2311,7 +2450,7 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F63" s="5"/>
     </row>
@@ -2319,11 +2458,11 @@
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F64" s="5"/>
     </row>
@@ -2335,7 +2474,7 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F65" s="5"/>
     </row>
@@ -2343,11 +2482,11 @@
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F66" s="5"/>
     </row>
@@ -2359,7 +2498,7 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F67" s="5"/>
     </row>
@@ -2368,17 +2507,17 @@
         <v>9</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2389,10 +2528,10 @@
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2403,7 +2542,7 @@
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F70" s="5"/>
     </row>
@@ -2415,7 +2554,7 @@
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F71" s="5"/>
     </row>
@@ -2427,7 +2566,7 @@
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F72" s="5"/>
     </row>
@@ -2439,7 +2578,7 @@
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F73" s="5"/>
     </row>
@@ -2451,7 +2590,7 @@
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F74" s="5"/>
     </row>
@@ -2463,7 +2602,7 @@
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" s="5"/>
     </row>
@@ -2475,7 +2614,7 @@
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F76" s="5"/>
     </row>
@@ -2487,7 +2626,7 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F77" s="5"/>
     </row>
@@ -2496,17 +2635,17 @@
         <v>10</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="C78" s="14"/>
       <c r="D78" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2517,7 +2656,7 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F79" s="5"/>
     </row>
@@ -2529,7 +2668,7 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F80" s="5"/>
     </row>
@@ -2537,11 +2676,11 @@
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F81" s="5"/>
     </row>
@@ -2553,7 +2692,7 @@
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F82" s="5"/>
     </row>
@@ -2561,11 +2700,11 @@
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F83" s="5"/>
     </row>
@@ -2573,11 +2712,11 @@
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F84" s="5"/>
     </row>
@@ -2589,7 +2728,7 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F85" s="5"/>
     </row>
@@ -2598,17 +2737,17 @@
         <v>11</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="C86" s="14"/>
       <c r="D86" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2619,7 +2758,7 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -2631,7 +2770,7 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F88" s="5"/>
     </row>
@@ -2639,11 +2778,11 @@
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F89" s="5"/>
     </row>
@@ -2655,7 +2794,7 @@
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F90" s="5"/>
     </row>
@@ -2663,11 +2802,11 @@
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F91" s="5"/>
     </row>
@@ -2679,7 +2818,7 @@
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F92" s="5"/>
     </row>
@@ -2691,7 +2830,7 @@
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F93" s="5"/>
     </row>
@@ -2700,17 +2839,17 @@
         <v>12</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2721,7 +2860,7 @@
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F95" s="5"/>
     </row>
@@ -2733,7 +2872,7 @@
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F96" s="5"/>
     </row>
@@ -2745,7 +2884,7 @@
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F97" s="5"/>
     </row>
@@ -2753,11 +2892,11 @@
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F98" s="5"/>
     </row>
@@ -2769,7 +2908,7 @@
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F99" s="5"/>
     </row>
@@ -2777,11 +2916,11 @@
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F100" s="5"/>
     </row>
@@ -2789,11 +2928,11 @@
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F101" s="5"/>
     </row>
@@ -2805,7 +2944,7 @@
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F102" s="5"/>
     </row>
@@ -2817,7 +2956,7 @@
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F103" s="5"/>
     </row>
@@ -2826,17 +2965,17 @@
         <v>13</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,7 +2986,7 @@
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F105" s="5"/>
     </row>
@@ -2859,7 +2998,7 @@
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F106" s="5"/>
     </row>
@@ -2867,11 +3006,11 @@
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F107" s="5"/>
     </row>
@@ -2879,11 +3018,11 @@
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F108" s="5"/>
     </row>
@@ -2895,7 +3034,7 @@
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F109" s="5"/>
     </row>
@@ -2903,11 +3042,11 @@
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F110" s="5"/>
     </row>
@@ -2919,7 +3058,7 @@
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F111" s="5"/>
     </row>
@@ -2931,7 +3070,7 @@
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F112" s="5"/>
     </row>
@@ -2940,17 +3079,17 @@
         <v>14</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,7 +3100,7 @@
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -2973,7 +3112,7 @@
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F115" s="5"/>
     </row>
@@ -2981,11 +3120,11 @@
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F116" s="5"/>
     </row>
@@ -2993,11 +3132,11 @@
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F117" s="5"/>
     </row>
@@ -3009,7 +3148,7 @@
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F118" s="5"/>
     </row>
@@ -3017,11 +3156,11 @@
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F119" s="5"/>
     </row>
@@ -3029,11 +3168,11 @@
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F120" s="5"/>
     </row>
@@ -3045,7 +3184,7 @@
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F121" s="5"/>
     </row>
@@ -3054,17 +3193,17 @@
         <v>15</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3075,7 +3214,7 @@
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F123" s="5"/>
     </row>
@@ -3087,7 +3226,7 @@
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F124" s="5"/>
     </row>
@@ -3095,11 +3234,11 @@
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F125" s="5"/>
     </row>
@@ -3111,7 +3250,7 @@
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F126" s="5"/>
     </row>
@@ -3119,11 +3258,11 @@
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F127" s="5"/>
     </row>
@@ -3131,11 +3270,11 @@
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F128" s="5"/>
     </row>
@@ -3147,9 +3286,281 @@
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="13">
+        <v>16</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="6"/>
+      <c r="F130" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A138" s="13">
+        <v>17</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="6"/>
+      <c r="F138" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A146" s="13">
+        <v>19</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" s="6"/>
+      <c r="F146" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F157" xr:uid="{D372FFE7-2919-4399-8E80-B75776B20FA7}"/>
@@ -3160,10 +3571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31CADDE-4362-43DE-A992-8FFB2CF04700}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -3197,198 +3608,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{84B7F5E1-B8F4-4C99-8445-1EE1AAE2130B}"/>

--- a/OrionTimeSheetStatus.xlsx
+++ b/OrionTimeSheetStatus.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\Eclipse-Workspace\OrionTimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6620F8AE-0073-483D-B638-E853D88C5F4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347CE49-E059-4185-A9E4-4EF38C9D4BAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8490" xr2:uid="{180BC902-77D8-4688-91F7-0B711583109A}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Pending" sheetId="2" r:id="rId2"/>
+    <sheet name="Automation Execution Pattern" sheetId="3" r:id="rId2"/>
+    <sheet name="Pending" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pending!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pending!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Results'!$A$1:$F$112</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="90">
   <si>
     <t>Scenario</t>
   </si>
@@ -72,15 +73,9 @@
     <t>S.No</t>
   </si>
   <si>
-    <t>Make changes to the Timesheet and Cancel</t>
-  </si>
-  <si>
     <t>Check if  the modified data is saved to the system by comparing the current data and test data</t>
   </si>
   <si>
-    <t>Make changes to the timesheet &amp; click cancel</t>
-  </si>
-  <si>
     <t>Check if the modified data is not captured in the system by comparing the current data and test data</t>
   </si>
   <si>
@@ -90,9 +85,6 @@
     <t>Verify Edit Timesheet screen components (Grid, Comment, Attachment) are disabled</t>
   </si>
   <si>
-    <t>Open respective timsheet by clicking the link</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -114,12 +106,6 @@
     <t xml:space="preserve">Click New Timesheet </t>
   </si>
   <si>
-    <t>Add time to the Timesheet and Save.  Verify save message is displayed</t>
-  </si>
-  <si>
-    <t>Verify the newly  data is saved correctly by comparing the current data and test data</t>
-  </si>
-  <si>
     <t>Open any of the "Submitted" timesheet link</t>
   </si>
   <si>
@@ -132,18 +118,9 @@
     <t>Confirm Save button does not exist to Save the details</t>
   </si>
   <si>
-    <t>Make changes (attachment, comment &amp; grid) to the Timesheet and Save.  Verify save message is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm new timesheet link doesn't exist in the " List of timesheets" screen  </t>
-  </si>
-  <si>
     <t>Verify Rejected Timesheet exist</t>
   </si>
   <si>
-    <t>Hard coded to refer to October 2017 data so that sApproved timesheets can be tested.</t>
-  </si>
-  <si>
     <t>Open Draft timsheet by clicking the link</t>
   </si>
   <si>
@@ -180,9 +157,6 @@
     <t xml:space="preserve">18Apr18 - Tested </t>
   </si>
   <si>
-    <t>Add time to the Timesheet and Submit.  Verify save message is displayed</t>
-  </si>
-  <si>
     <t>Verify the new data is saved correctly by comparing the current data and test data</t>
   </si>
   <si>
@@ -195,9 +169,6 @@
     <t xml:space="preserve">Click Draft Timesheet </t>
   </si>
   <si>
-    <t>Modify existing data to the Timesheet and submit.  Verify submit message is displayed</t>
-  </si>
-  <si>
     <t>Verify Submit button exist to submit the details</t>
   </si>
   <si>
@@ -710,51 +681,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>" is clicked (Test_NewTimeSheet_SubmitFunctionality.java)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify consultant is able to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SUBMIT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a time sheet when "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Draft time sheet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" is clicked (Test_DraftTimeSheet_SubmitFunctionality.java)</t>
     </r>
   </si>
   <si>
@@ -1142,6 +1068,111 @@
   </si>
   <si>
     <t xml:space="preserve">Click "Rejected" Timesheet </t>
+  </si>
+  <si>
+    <t>Add test data to Sunday, Monday, Comment, upload test document as attachment and Save.  Verify save message is displayed</t>
+  </si>
+  <si>
+    <t>Reopen the newly added time and Verify the newly  data is saved correctly by comparing the current data in the screen and test data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify new timesheet link doesn't exist in the " List of timesheets" screen  </t>
+  </si>
+  <si>
+    <t>Get the timesheet data before modification.  Update columns Sunday, Monday, Comment &amp; upload test document to the Timesheet and cancel.</t>
+  </si>
+  <si>
+    <t>Update columns Sunday, Monday, Comment &amp; upload test document to the Timesheet and Save.  Verify save message is displayed</t>
+  </si>
+  <si>
+    <t>Add test data to the columns Sunday, Monday, Comment, upload test document as attachment and cancel.</t>
+  </si>
+  <si>
+    <t>Make changes to the Comment column &amp; upload a test document &amp; click cancel</t>
+  </si>
+  <si>
+    <t>Add test data to the columns Sunday, Monday, Comment, upload test document as attachment and Submit.  Verify submit messages are displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update test data to the columns Sunday, Monday, Comment, upload test document as attachment and Submit.  Verify submit messages are displayed. </t>
+  </si>
+  <si>
+    <t>Update test data to the columns Sunday, Monday, Comment, upload test document as attachment and cancel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify consultant is able to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUBMIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a time sheet under "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Draft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" status (Test_DraftTimeSheet_SubmitFunctionality.java)</t>
+    </r>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Any Order</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Pre-Approved</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1298,6 +1329,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1615,7 +1652,7 @@
   <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,13 +1676,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="39" x14ac:dyDescent="0.25">
@@ -1653,17 +1690,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,10 +1709,10 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,7 +1723,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1696,11 +1731,11 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -1712,7 +1747,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -1720,11 +1755,11 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -1732,11 +1767,11 @@
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -1748,7 +1783,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -1757,17 +1792,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,10 +1811,10 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,7 +1825,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -1800,11 +1833,11 @@
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -1816,19 +1849,19 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1836,42 +1869,40 @@
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+    <row r="17" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="5"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1882,7 +1913,7 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -1894,7 +1925,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -1902,11 +1933,11 @@
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1914,23 +1945,23 @@
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -1938,65 +1969,63 @@
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+    <row r="26" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>4</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -2004,11 +2033,11 @@
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -2016,59 +2045,59 @@
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F34" s="5"/>
     </row>
@@ -2077,17 +2106,15 @@
         <v>5</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E35" s="6"/>
       <c r="F35" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2098,11 +2125,9 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -2112,7 +2137,7 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -2120,78 +2145,76 @@
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+    <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="A43" s="11">
         <v>6</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="C43" s="14"/>
       <c r="D43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,11 +2225,9 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -2216,7 +2237,7 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F45" s="5"/>
     </row>
@@ -2224,11 +2245,11 @@
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F46" s="5"/>
     </row>
@@ -2236,35 +2257,35 @@
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F49" s="5"/>
     </row>
@@ -2276,7 +2297,7 @@
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -2285,17 +2306,15 @@
         <v>7</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E51" s="6"/>
       <c r="F51" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2306,10 +2325,10 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2320,11 +2339,11 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
@@ -2332,21 +2351,19 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -2358,7 +2375,7 @@
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F56" s="5"/>
     </row>
@@ -2366,79 +2383,77 @@
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="9" t="s">
-        <v>18</v>
+      <c r="C58" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
+    <row r="59" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
         <v>8</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
-        <v>8</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5"/>
       <c r="E60" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F62" s="5"/>
     </row>
@@ -2446,11 +2461,11 @@
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F63" s="5"/>
     </row>
@@ -2458,11 +2473,11 @@
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F64" s="5"/>
     </row>
@@ -2470,79 +2485,77 @@
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="5" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+    <row r="67" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
         <v>9</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F70" s="5"/>
     </row>
@@ -2550,11 +2563,11 @@
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F71" s="5"/>
     </row>
@@ -2562,11 +2575,11 @@
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F72" s="5"/>
     </row>
@@ -2574,89 +2587,91 @@
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="5" t="s">
-        <v>11</v>
+      <c r="C74" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="9" t="s">
-        <v>15</v>
+      <c r="C75" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="5"/>
+      <c r="A76" s="13">
+        <v>10</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
-        <v>10</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="5"/>
       <c r="E78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F79" s="5"/>
     </row>
@@ -2664,11 +2679,11 @@
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F80" s="5"/>
     </row>
@@ -2676,11 +2691,11 @@
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F81" s="5"/>
     </row>
@@ -2688,77 +2703,77 @@
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" s="5"/>
+      <c r="A84" s="13">
+        <v>11</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
-        <v>11</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="5"/>
       <c r="E86" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -2766,11 +2781,11 @@
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F88" s="5"/>
     </row>
@@ -2778,11 +2793,11 @@
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F89" s="5"/>
     </row>
@@ -2790,47 +2805,47 @@
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="5" t="s">
-        <v>54</v>
+      <c r="C91" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="5" t="s">
-        <v>7</v>
+      <c r="C92" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F93" s="5"/>
     </row>
@@ -2839,17 +2854,15 @@
         <v>12</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E94" s="6"/>
       <c r="F94" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2860,7 +2873,7 @@
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F95" s="5"/>
     </row>
@@ -2872,7 +2885,7 @@
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F96" s="5"/>
     </row>
@@ -2880,11 +2893,11 @@
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F97" s="5"/>
     </row>
@@ -2892,11 +2905,11 @@
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F98" s="5"/>
     </row>
@@ -2908,7 +2921,7 @@
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F99" s="5"/>
     </row>
@@ -2916,11 +2929,11 @@
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F100" s="5"/>
     </row>
@@ -2928,11 +2941,11 @@
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F101" s="5"/>
     </row>
@@ -2940,11 +2953,11 @@
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F102" s="5"/>
     </row>
@@ -2956,7 +2969,7 @@
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F103" s="5"/>
     </row>
@@ -2965,17 +2978,15 @@
         <v>13</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E104" s="6"/>
       <c r="F104" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,7 +2997,7 @@
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F105" s="5"/>
     </row>
@@ -2998,7 +3009,7 @@
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F106" s="5"/>
     </row>
@@ -3006,11 +3017,11 @@
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F107" s="5"/>
     </row>
@@ -3018,11 +3029,11 @@
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F108" s="5"/>
     </row>
@@ -3034,7 +3045,7 @@
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F109" s="5"/>
     </row>
@@ -3042,11 +3053,11 @@
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F110" s="5"/>
     </row>
@@ -3058,19 +3069,19 @@
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" s="5"/>
+      <c r="B112" s="2"/>
       <c r="C112" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F112" s="5"/>
     </row>
@@ -3079,17 +3090,17 @@
         <v>14</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,7 +3111,7 @@
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -3112,7 +3123,7 @@
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F115" s="5"/>
     </row>
@@ -3120,11 +3131,11 @@
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F116" s="5"/>
     </row>
@@ -3132,11 +3143,11 @@
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F117" s="5"/>
     </row>
@@ -3148,7 +3159,7 @@
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F118" s="5"/>
     </row>
@@ -3156,11 +3167,11 @@
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F119" s="5"/>
     </row>
@@ -3168,23 +3179,23 @@
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
+      <c r="B121" s="2"/>
       <c r="C121" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F121" s="5"/>
     </row>
@@ -3193,17 +3204,17 @@
         <v>15</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3214,7 +3225,7 @@
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F123" s="5"/>
     </row>
@@ -3226,7 +3237,7 @@
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F124" s="5"/>
     </row>
@@ -3234,11 +3245,11 @@
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F125" s="5"/>
     </row>
@@ -3250,7 +3261,7 @@
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F126" s="5"/>
     </row>
@@ -3258,11 +3269,11 @@
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F127" s="5"/>
     </row>
@@ -3270,11 +3281,11 @@
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F128" s="5"/>
     </row>
@@ -3286,7 +3297,7 @@
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F129" s="5"/>
     </row>
@@ -3295,15 +3306,15 @@
         <v>16</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3313,7 +3324,9 @@
         <v>3</v>
       </c>
       <c r="D131" s="5"/>
-      <c r="E131" s="6"/>
+      <c r="E131" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F131" s="5"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,27 +3336,33 @@
         <v>4</v>
       </c>
       <c r="D132" s="5"/>
-      <c r="E132" s="6"/>
+      <c r="E132" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F132" s="5"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D133" s="5"/>
-      <c r="E133" s="6"/>
+      <c r="E133" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F133" s="5"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D134" s="5"/>
-      <c r="E134" s="6"/>
+      <c r="E134" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F134" s="5"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3353,27 +3372,33 @@
         <v>6</v>
       </c>
       <c r="D135" s="5"/>
-      <c r="E135" s="6"/>
+      <c r="E135" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F135" s="5"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D136" s="5"/>
-      <c r="E136" s="6"/>
+      <c r="E136" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F136" s="5"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="B137" s="5"/>
+      <c r="B137" s="2"/>
       <c r="C137" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="5"/>
-      <c r="E137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F137" s="5"/>
     </row>
     <row r="138" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -3381,15 +3406,15 @@
         <v>17</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,7 +3424,9 @@
         <v>3</v>
       </c>
       <c r="D139" s="5"/>
-      <c r="E139" s="6"/>
+      <c r="E139" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F139" s="5"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3409,17 +3436,21 @@
         <v>4</v>
       </c>
       <c r="D140" s="5"/>
-      <c r="E140" s="6"/>
+      <c r="E140" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D141" s="5"/>
-      <c r="E141" s="6"/>
+      <c r="E141" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3429,27 +3460,33 @@
         <v>6</v>
       </c>
       <c r="D142" s="5"/>
-      <c r="E142" s="6"/>
+      <c r="E142" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D143" s="5"/>
-      <c r="E143" s="6"/>
+      <c r="E143" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F143" s="5"/>
     </row>
     <row r="144" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D144" s="5"/>
-      <c r="E144" s="6"/>
+      <c r="E144" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F144" s="5"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3459,23 +3496,25 @@
         <v>8</v>
       </c>
       <c r="D145" s="5"/>
-      <c r="E145" s="6"/>
+      <c r="E145" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F145" s="5"/>
     </row>
     <row r="146" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3486,7 +3525,7 @@
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F147" s="5"/>
     </row>
@@ -3498,7 +3537,7 @@
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F148" s="5"/>
     </row>
@@ -3506,11 +3545,11 @@
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F149" s="5"/>
     </row>
@@ -3522,19 +3561,19 @@
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F151" s="5"/>
     </row>
@@ -3546,7 +3585,7 @@
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F152" s="5"/>
     </row>
@@ -3558,7 +3597,7 @@
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F153" s="5"/>
     </row>
@@ -3570,6 +3609,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9444536-CD1B-4C67-9DD5-2F9338DA8354}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31CADDE-4362-43DE-A992-8FFB2CF04700}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3598,13 +3755,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
